--- a/sessions/data/Part_I/SIAF/districts/ MUNICIPALIDAD DISTRITAL DE CHILIQUIN/ MUNICIPALIDAD DISTRITAL DE CHILIQUIN.xlsx
+++ b/sessions/data/Part_I/SIAF/districts/ MUNICIPALIDAD DISTRITAL DE CHILIQUIN/ MUNICIPALIDAD DISTRITAL DE CHILIQUIN.xlsx
@@ -502,7 +502,7 @@
         <v>61745</v>
       </c>
       <c r="G2" t="n">
-        <v>59545</v>
+        <v>61745</v>
       </c>
       <c r="H2" t="n">
         <v>59545</v>
@@ -604,16 +604,16 @@
         <v>12575165</v>
       </c>
       <c r="G5" t="n">
-        <v>7568544</v>
+        <v>7636880</v>
       </c>
       <c r="H5" t="n">
-        <v>7568544</v>
+        <v>7606880</v>
       </c>
       <c r="I5" t="n">
         <v>7568544</v>
       </c>
       <c r="J5" t="n">
-        <v>59.3</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="6">
@@ -666,13 +666,13 @@
         <v>64803</v>
       </c>
       <c r="E7" t="n">
-        <v>22946</v>
+        <v>55609</v>
       </c>
       <c r="F7" t="n">
-        <v>13946</v>
+        <v>79271</v>
       </c>
       <c r="G7" t="n">
-        <v>13946</v>
+        <v>46609</v>
       </c>
       <c r="H7" t="n">
         <v>13946</v>
@@ -706,7 +706,7 @@
         <v>30000</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
